--- a/MATLAB_codes/Results/Excels/ewpo_testing_fullpairwise_Unif_beta_versionB_deltax_22-Dec-2023.xlsx
+++ b/MATLAB_codes/Results/Excels/ewpo_testing_fullpairwise_Unif_beta_versionB_deltax_22-Dec-2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kristof\Desktop\Endogeneity\MATLAB_codes\Results\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8348CD72-82A7-449E-AA32-87DCD5DBD0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D93CAB31-EB35-44E1-BFA1-D50573905ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5880" yWindow="1425" windowWidth="7500" windowHeight="7875" xr2:uid="{EB5A998F-DB9F-4969-B0ED-6CFE133CE4D9}"/>
   </bookViews>
